--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfa-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +88,10 @@
     <t>Egfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.21548106112603</v>
+        <v>0.6079640000000001</v>
       </c>
       <c r="H2">
-        <v>0.21548106112603</v>
+        <v>1.823892</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6924052427747278</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7715093163997315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.897941217831048</v>
+        <v>1.211057333333333</v>
       </c>
       <c r="N2">
-        <v>0.897941217831048</v>
+        <v>3.633172</v>
       </c>
       <c r="O2">
-        <v>0.01181103953983894</v>
+        <v>0.0147461456544675</v>
       </c>
       <c r="P2">
-        <v>0.01181103953983894</v>
+        <v>0.01598314554371009</v>
       </c>
       <c r="Q2">
-        <v>0.1934893264470339</v>
+        <v>0.7362792606026668</v>
       </c>
       <c r="R2">
-        <v>0.1934893264470339</v>
+        <v>6.626513345424001</v>
       </c>
       <c r="S2">
-        <v>0.01181103953983894</v>
+        <v>0.01021030856187306</v>
       </c>
       <c r="T2">
-        <v>0.01181103953983894</v>
+        <v>0.01233114569234519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.21548106112603</v>
+        <v>0.6079640000000001</v>
       </c>
       <c r="H3">
-        <v>0.21548106112603</v>
+        <v>1.823892</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6924052427747278</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7715093163997315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.7871225945224</v>
+        <v>61.06015933333333</v>
       </c>
       <c r="N3">
-        <v>56.7871225945224</v>
+        <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7469475027972082</v>
+        <v>0.7434842087418319</v>
       </c>
       <c r="P3">
-        <v>0.7469475027972082</v>
+        <v>0.8058523627949308</v>
       </c>
       <c r="Q3">
-        <v>12.23654943496164</v>
+        <v>37.12237870893067</v>
       </c>
       <c r="R3">
-        <v>12.23654943496164</v>
+        <v>334.101408380376</v>
       </c>
       <c r="S3">
-        <v>0.7469475027972082</v>
+        <v>0.5147923640530645</v>
       </c>
       <c r="T3">
-        <v>0.7469475027972082</v>
+        <v>0.6217226055390255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.21548106112603</v>
+        <v>0.6079640000000001</v>
       </c>
       <c r="H4">
-        <v>0.21548106112603</v>
+        <v>1.823892</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6924052427747278</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7715093163997315</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.421752113583795</v>
+        <v>0.132278</v>
       </c>
       <c r="N4">
-        <v>0.421752113583795</v>
+        <v>0.396834</v>
       </c>
       <c r="O4">
-        <v>0.005547502209087931</v>
+        <v>0.001610650958623747</v>
       </c>
       <c r="P4">
-        <v>0.005547502209087931</v>
+        <v>0.001745762539921768</v>
       </c>
       <c r="Q4">
-        <v>0.09087959296718208</v>
+        <v>0.08042026199200002</v>
       </c>
       <c r="R4">
-        <v>0.09087959296718208</v>
+        <v>0.7237823579280001</v>
       </c>
       <c r="S4">
-        <v>0.005547502209087931</v>
+        <v>0.001115223168031223</v>
       </c>
       <c r="T4">
-        <v>0.005547502209087931</v>
+        <v>0.001346872063771302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.6079640000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.823892</v>
+      </c>
+      <c r="I5">
+        <v>0.6924052427747278</v>
+      </c>
+      <c r="J5">
+        <v>0.7715093163997315</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.655122</v>
+      </c>
+      <c r="N5">
+        <v>1.965366</v>
+      </c>
+      <c r="O5">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P5">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q5">
+        <v>0.398290591608</v>
+      </c>
+      <c r="R5">
+        <v>3.584615324472</v>
+      </c>
+      <c r="S5">
+        <v>0.005523270931575553</v>
+      </c>
+      <c r="T5">
+        <v>0.006670538715145249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6079640000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.823892</v>
+      </c>
+      <c r="I6">
+        <v>0.6924052427747278</v>
+      </c>
+      <c r="J6">
+        <v>0.7715093163997315</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>19.068426</v>
+      </c>
+      <c r="N6">
+        <v>38.136852</v>
+      </c>
+      <c r="O6">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P6">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q6">
+        <v>11.592916544664</v>
+      </c>
+      <c r="R6">
+        <v>69.557499267984</v>
+      </c>
+      <c r="S6">
+        <v>0.1607640760601834</v>
+      </c>
+      <c r="T6">
+        <v>0.1294381543894442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.21548106112603</v>
-      </c>
-      <c r="H5">
-        <v>0.21548106112603</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>17.918771390257</v>
-      </c>
-      <c r="N5">
-        <v>17.918771390257</v>
-      </c>
-      <c r="O5">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="P5">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="Q5">
-        <v>3.861155873247326</v>
-      </c>
-      <c r="R5">
-        <v>3.861155873247326</v>
-      </c>
-      <c r="S5">
-        <v>0.2356939554538648</v>
-      </c>
-      <c r="T5">
-        <v>0.2356939554538648</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2700825</v>
+      </c>
+      <c r="H7">
+        <v>0.540165</v>
+      </c>
+      <c r="I7">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J7">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.211057333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.633172</v>
+      </c>
+      <c r="O7">
+        <v>0.0147461456544675</v>
+      </c>
+      <c r="P7">
+        <v>0.01598314554371009</v>
+      </c>
+      <c r="Q7">
+        <v>0.32708539223</v>
+      </c>
+      <c r="R7">
+        <v>1.96251235338</v>
+      </c>
+      <c r="S7">
+        <v>0.004535837092594433</v>
+      </c>
+      <c r="T7">
+        <v>0.003651999851364904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2700825</v>
+      </c>
+      <c r="H8">
+        <v>0.540165</v>
+      </c>
+      <c r="I8">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J8">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.06015933333333</v>
+      </c>
+      <c r="N8">
+        <v>183.180478</v>
+      </c>
+      <c r="O8">
+        <v>0.7434842087418319</v>
+      </c>
+      <c r="P8">
+        <v>0.8058523627949308</v>
+      </c>
+      <c r="Q8">
+        <v>16.491280483145</v>
+      </c>
+      <c r="R8">
+        <v>98.94768289887</v>
+      </c>
+      <c r="S8">
+        <v>0.2286918446887674</v>
+      </c>
+      <c r="T8">
+        <v>0.1841297572559053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2700825</v>
+      </c>
+      <c r="H9">
+        <v>0.540165</v>
+      </c>
+      <c r="I9">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J9">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.132278</v>
+      </c>
+      <c r="N9">
+        <v>0.396834</v>
+      </c>
+      <c r="O9">
+        <v>0.001610650958623747</v>
+      </c>
+      <c r="P9">
+        <v>0.001745762539921768</v>
+      </c>
+      <c r="Q9">
+        <v>0.035725972935</v>
+      </c>
+      <c r="R9">
+        <v>0.21435583761</v>
+      </c>
+      <c r="S9">
+        <v>0.0004954277905925233</v>
+      </c>
+      <c r="T9">
+        <v>0.0003988904761504659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2700825</v>
+      </c>
+      <c r="H10">
+        <v>0.540165</v>
+      </c>
+      <c r="I10">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J10">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.655122</v>
+      </c>
+      <c r="N10">
+        <v>1.965366</v>
+      </c>
+      <c r="O10">
+        <v>0.007976934012575832</v>
+      </c>
+      <c r="P10">
+        <v>0.008646089649666828</v>
+      </c>
+      <c r="Q10">
+        <v>0.176936987565</v>
+      </c>
+      <c r="R10">
+        <v>1.06162192539</v>
+      </c>
+      <c r="S10">
+        <v>0.00245366308100028</v>
+      </c>
+      <c r="T10">
+        <v>0.00197555093452158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2700825</v>
+      </c>
+      <c r="H11">
+        <v>0.540165</v>
+      </c>
+      <c r="I11">
+        <v>0.3075947572252722</v>
+      </c>
+      <c r="J11">
+        <v>0.2284906836002685</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>19.068426</v>
+      </c>
+      <c r="N11">
+        <v>38.136852</v>
+      </c>
+      <c r="O11">
+        <v>0.232182060632501</v>
+      </c>
+      <c r="P11">
+        <v>0.1677726394717705</v>
+      </c>
+      <c r="Q11">
+        <v>5.150048165145</v>
+      </c>
+      <c r="R11">
+        <v>20.60019266058</v>
+      </c>
+      <c r="S11">
+        <v>0.07141798457231759</v>
+      </c>
+      <c r="T11">
+        <v>0.03833448508232622</v>
       </c>
     </row>
   </sheetData>
